--- a/SuppXLS/Demands/ScenDem_DEM_Ref.xlsx
+++ b/SuppXLS/Demands/ScenDem_DEM_Ref.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/PhD Renewable Energy/Paper 4/Demand Projection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58EC1AE1-54D5-4B4A-A424-D83F3962879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{58EC1AE1-54D5-4B4A-A424-D83F3962879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DD99FEC-FECF-4422-BCB8-116F48E7A44C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{160EB8D6-37B5-4ECA-BC09-5923A721DAB9}"/>
   </bookViews>
@@ -292,7 +292,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -720,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D947983-E6F1-4569-8577-20F46CF180DE}">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -731,31 +731,31 @@
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -789,14 +789,32 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="Q6" s="5" t="str">
+        <f>C25</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="R6" s="5">
+        <f>N25</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1.1313899642093279</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1.355542605066056</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1.5797849727706819</v>
+      </c>
+      <c r="V6" s="5">
+        <v>1.7993320871074436</v>
+      </c>
+      <c r="W6" s="5">
+        <v>2.0124119522236277</v>
+      </c>
+      <c r="X6" s="5">
+        <v>2.2195959594185952</v>
+      </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -805,8 +823,9 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG6" s="5"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -847,14 +866,32 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
+      <c r="Q7" s="5" t="str">
+        <f t="shared" ref="Q7:Q8" si="1">C26</f>
+        <v>MANELC</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" ref="R7:R8" si="2">N26</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1.1595445352697871</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1.4475515909131265</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1.7577804289274863</v>
+      </c>
+      <c r="V7" s="6">
+        <v>2.0860453157887049</v>
+      </c>
+      <c r="W7" s="6">
+        <v>2.4309446431317987</v>
+      </c>
+      <c r="X7" s="6">
+        <v>2.7936878195235799</v>
+      </c>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -863,8 +900,9 @@
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG7" s="6"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -872,35 +910,61 @@
         <v>15</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" ref="D8:J9" si="1">E41</f>
+        <f t="shared" ref="D8:J9" si="3">E41</f>
         <v>1</v>
       </c>
       <c r="E8" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1595445352697871</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="3"/>
+        <v>1.4475515909131265</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="3"/>
+        <v>1.7577804289274863</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0860453157887049</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4309446431317987</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="3"/>
+        <v>2.7936878195235799</v>
+      </c>
+      <c r="Q8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>1.1595445352697871</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4475515909131265</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>1.7577804289274863</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>2.0860453157887049</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4309446431317987</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="1"/>
-        <v>2.7936878195235799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+        <v>CEMENTHEAT</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1.4306305127337586</v>
+      </c>
+      <c r="T8">
+        <v>2.5345590792836878</v>
+      </c>
+      <c r="U8">
+        <v>4.3677855830195487</v>
+      </c>
+      <c r="V8">
+        <v>7.356118929966927</v>
+      </c>
+      <c r="W8">
+        <v>12.165455955651089</v>
+      </c>
+      <c r="X8">
+        <v>19.840815268166384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -908,35 +972,35 @@
         <v>16</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4306305127337586</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5345590792836878</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.3677855830195487</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.356118929966927</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.165455955651089</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.840815268166384</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -968,7 +1032,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +1064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -1026,7 +1090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -1044,27 +1108,55 @@
         <v>2947.4068593535344</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25:K25" si="2">G33*G35</f>
+        <f t="shared" ref="G25:K25" si="4">G33*G35</f>
         <v>3531.3514338177761</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4115.5297575067134</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4687.4763817634248</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5242.5750443827874</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5782.3142883856781</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <f>E25/E25</f>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f>F25/$E25</f>
+        <v>1.1313899642093279</v>
+      </c>
+      <c r="P25">
+        <f>G25/$E25</f>
+        <v>1.355542605066056</v>
+      </c>
+      <c r="Q25">
+        <f>H25/$E25</f>
+        <v>1.5797849727706819</v>
+      </c>
+      <c r="R25">
+        <f>I25/$E25</f>
+        <v>1.7993320871074436</v>
+      </c>
+      <c r="S25">
+        <f>J25/$E25</f>
+        <v>2.0124119522236277</v>
+      </c>
+      <c r="T25">
+        <f>K25/$E25</f>
+        <v>2.2195959594185952</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>26</v>
       </c>
@@ -1082,27 +1174,55 @@
         <v>3318.1076531301678</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:K26" si="3">G33*G36</f>
+        <f t="shared" ref="G26:K26" si="5">G33*G36</f>
         <v>4142.2574692157614</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5029.9962755546021</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5969.346339495607</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6956.2968729223376</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7994.3086724659179</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <f t="shared" ref="N26:N27" si="6">E26/E26</f>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f>F26/$E26</f>
+        <v>1.1595445352697871</v>
+      </c>
+      <c r="P26">
+        <f>G26/$E26</f>
+        <v>1.4475515909131265</v>
+      </c>
+      <c r="Q26">
+        <f>H26/$E26</f>
+        <v>1.7577804289274863</v>
+      </c>
+      <c r="R26">
+        <f>I26/$E26</f>
+        <v>2.0860453157887049</v>
+      </c>
+      <c r="S26">
+        <f>J26/$E26</f>
+        <v>2.4309446431317987</v>
+      </c>
+      <c r="T26">
+        <f>K26/$E26</f>
+        <v>2.7936878195235799</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -1120,32 +1240,60 @@
         <v>10981.845367938809</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:K27" si="4">G33*G37</f>
+        <f t="shared" ref="G27:K27" si="7">G33*G37</f>
         <v>19455.852253151803</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>33528.116062179717</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>56467.242854129028</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>93384.808269005094</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>152302.6129454516</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M32" t="s">
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f>F27/$E27</f>
+        <v>1.4306305127337586</v>
+      </c>
+      <c r="P27">
+        <f>G27/$E27</f>
+        <v>2.5345590792836878</v>
+      </c>
+      <c r="Q27">
+        <f>H27/$E27</f>
+        <v>4.3677855830195487</v>
+      </c>
+      <c r="R27">
+        <f>I27/$E27</f>
+        <v>7.356118929966927</v>
+      </c>
+      <c r="S27">
+        <f>J27/$E27</f>
+        <v>12.165455955651089</v>
+      </c>
+      <c r="T27">
+        <f>K27/$E27</f>
+        <v>19.840815268166384</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -1157,34 +1305,34 @@
         <v>13142.908968099302</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:K33" si="5">$E33*(1+$M33)^(F22-$E22)</f>
+        <f>$E33*(1+$N33)^(F22-$E22)</f>
         <v>17247.359880422511</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
+        <f>$E33*(1+$N33)^(G22-$E22)</f>
         <v>27129.461156185345</v>
       </c>
       <c r="H33">
-        <f t="shared" si="5"/>
+        <f>$E33*(1+$N33)^(H22-$E22)</f>
         <v>42673.642095241041</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
+        <f>$E33*(1+$N33)^(I22-$E22)</f>
         <v>67124.065575388056</v>
       </c>
       <c r="J33">
-        <f t="shared" si="5"/>
+        <f>$E33*(1+$N33)^(J22-$E22)</f>
         <v>105583.68018631023</v>
       </c>
       <c r="K33">
-        <f t="shared" si="5"/>
+        <f>$E33*(1+$N33)^(K22-$E22)</f>
         <v>166079.23590630319</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>9.4822485813413682E-2</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -1213,7 +1361,7 @@
         <v>3.4816599780407721E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>31</v>
       </c>
@@ -1242,7 +1390,7 @@
         <v>4.8135509709209295E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -1271,7 +1419,7 @@
         <v>0.91704789051038305</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -1284,27 +1432,27 @@
         <v>1.3122939466662673</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40:K40" si="6">G33/$E33</f>
+        <f t="shared" ref="G40:K40" si="8">G33/$E33</f>
         <v>2.0641899918834139</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2468947474884935</v>
       </c>
       <c r="I40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.1072457199781844</v>
       </c>
       <c r="J40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0335092058070838</v>
       </c>
       <c r="K40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.636413773344517</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -1317,27 +1465,27 @@
         <v>1.1595445352697871</v>
       </c>
       <c r="G41">
-        <f t="shared" ref="G41:K42" si="7">G26/$E26</f>
+        <f t="shared" ref="G41:K42" si="9">G26/$E26</f>
         <v>1.4475515909131265</v>
       </c>
       <c r="H41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7577804289274863</v>
       </c>
       <c r="I41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0860453157887049</v>
       </c>
       <c r="J41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4309446431317987</v>
       </c>
       <c r="K41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7936878195235799</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>16</v>
       </c>
@@ -1350,23 +1498,23 @@
         <v>1.4306305127337586</v>
       </c>
       <c r="G42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5345590792836878</v>
       </c>
       <c r="H42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3677855830195487</v>
       </c>
       <c r="I42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.356118929966927</v>
       </c>
       <c r="J42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.165455955651089</v>
       </c>
       <c r="K42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.840815268166384</v>
       </c>
     </row>

--- a/SuppXLS/Demands/ScenDem_DEM_Ref.xlsx
+++ b/SuppXLS/Demands/ScenDem_DEM_Ref.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\Demands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{58EC1AE1-54D5-4B4A-A424-D83F3962879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DD99FEC-FECF-4422-BCB8-116F48E7A44C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D37B920-9A12-448A-A887-D94105D9E7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{160EB8D6-37B5-4ECA-BC09-5923A721DAB9}"/>
   </bookViews>
@@ -723,7 +723,7 @@
   <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="D7" sqref="D7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -833,31 +833,24 @@
         <v>14</v>
       </c>
       <c r="D7" s="6">
-        <f>E40</f>
         <v>1</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" ref="E7:J7" si="0">F40</f>
         <v>1.3122939466662673</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
         <v>2.0641899918834139</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="0"/>
         <v>3.2468947474884935</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
         <v>5.1072457199781844</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="0"/>
         <v>8.0335092058070838</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="0"/>
         <v>12.636413773344517</v>
       </c>
       <c r="K7" s="6"/>
@@ -867,11 +860,11 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="5" t="str">
-        <f t="shared" ref="Q7:Q8" si="1">C26</f>
+        <f t="shared" ref="Q7:Q8" si="0">C26</f>
         <v>MANELC</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" ref="R7:R8" si="2">N26</f>
+        <f t="shared" ref="R7:R8" si="1">N26</f>
         <v>1</v>
       </c>
       <c r="S7" s="5">
@@ -910,39 +903,32 @@
         <v>15</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" ref="D8:J9" si="3">E41</f>
         <v>1</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="3"/>
         <v>1.1595445352697871</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="3"/>
         <v>1.4475515909131265</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="3"/>
         <v>1.7577804289274863</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="3"/>
         <v>2.0860453157887049</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="3"/>
         <v>2.4309446431317987</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="3"/>
         <v>2.7936878195235799</v>
       </c>
       <c r="Q8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>CEMENTHEAT</v>
+      </c>
+      <c r="R8" s="5">
         <f t="shared" si="1"/>
-        <v>CEMENTHEAT</v>
-      </c>
-      <c r="R8" s="5">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S8" s="5">
@@ -972,31 +958,24 @@
         <v>16</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="3"/>
         <v>1.4306305127337586</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="3"/>
         <v>2.5345590792836878</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="3"/>
         <v>4.3677855830195487</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="3"/>
         <v>7.356118929966927</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="3"/>
         <v>12.165455955651089</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="3"/>
         <v>19.840815268166384</v>
       </c>
     </row>
@@ -1108,23 +1087,23 @@
         <v>2947.4068593535344</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25:K25" si="4">G33*G35</f>
+        <f t="shared" ref="G25:K25" si="2">G33*G35</f>
         <v>3531.3514338177761</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4115.5297575067134</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4687.4763817634248</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5242.5750443827874</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5782.3142883856781</v>
       </c>
       <c r="N25">
@@ -1132,27 +1111,27 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <f>F25/$E25</f>
+        <f t="shared" ref="O25:T27" si="3">F25/$E25</f>
         <v>1.1313899642093279</v>
       </c>
       <c r="P25">
-        <f>G25/$E25</f>
+        <f t="shared" si="3"/>
         <v>1.355542605066056</v>
       </c>
       <c r="Q25">
-        <f>H25/$E25</f>
+        <f t="shared" si="3"/>
         <v>1.5797849727706819</v>
       </c>
       <c r="R25">
-        <f>I25/$E25</f>
+        <f t="shared" si="3"/>
         <v>1.7993320871074436</v>
       </c>
       <c r="S25">
-        <f>J25/$E25</f>
+        <f t="shared" si="3"/>
         <v>2.0124119522236277</v>
       </c>
       <c r="T25">
-        <f>K25/$E25</f>
+        <f t="shared" si="3"/>
         <v>2.2195959594185952</v>
       </c>
     </row>
@@ -1174,51 +1153,51 @@
         <v>3318.1076531301678</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:K26" si="5">G33*G36</f>
+        <f t="shared" ref="G26:K26" si="4">G33*G36</f>
         <v>4142.2574692157614</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5029.9962755546021</v>
       </c>
       <c r="I26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5969.346339495607</v>
       </c>
       <c r="J26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6956.2968729223376</v>
       </c>
       <c r="K26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7994.3086724659179</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:N27" si="6">E26/E26</f>
+        <f t="shared" ref="N26:N27" si="5">E26/E26</f>
         <v>1</v>
       </c>
       <c r="O26">
-        <f>F26/$E26</f>
+        <f t="shared" si="3"/>
         <v>1.1595445352697871</v>
       </c>
       <c r="P26">
-        <f>G26/$E26</f>
+        <f t="shared" si="3"/>
         <v>1.4475515909131265</v>
       </c>
       <c r="Q26">
-        <f>H26/$E26</f>
+        <f t="shared" si="3"/>
         <v>1.7577804289274863</v>
       </c>
       <c r="R26">
-        <f>I26/$E26</f>
+        <f t="shared" si="3"/>
         <v>2.0860453157887049</v>
       </c>
       <c r="S26">
-        <f>J26/$E26</f>
+        <f t="shared" si="3"/>
         <v>2.4309446431317987</v>
       </c>
       <c r="T26">
-        <f>K26/$E26</f>
+        <f t="shared" si="3"/>
         <v>2.7936878195235799</v>
       </c>
     </row>
@@ -1240,51 +1219,51 @@
         <v>10981.845367938809</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:K27" si="7">G33*G37</f>
+        <f t="shared" ref="G27:K27" si="6">G33*G37</f>
         <v>19455.852253151803</v>
       </c>
       <c r="H27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33528.116062179717</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>56467.242854129028</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>93384.808269005094</v>
       </c>
       <c r="K27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>152302.6129454516</v>
       </c>
       <c r="N27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O27">
-        <f>F27/$E27</f>
+        <f t="shared" si="3"/>
         <v>1.4306305127337586</v>
       </c>
       <c r="P27">
-        <f>G27/$E27</f>
+        <f t="shared" si="3"/>
         <v>2.5345590792836878</v>
       </c>
       <c r="Q27">
-        <f>H27/$E27</f>
+        <f t="shared" si="3"/>
         <v>4.3677855830195487</v>
       </c>
       <c r="R27">
-        <f>I27/$E27</f>
+        <f t="shared" si="3"/>
         <v>7.356118929966927</v>
       </c>
       <c r="S27">
-        <f>J27/$E27</f>
+        <f t="shared" si="3"/>
         <v>12.165455955651089</v>
       </c>
       <c r="T27">
-        <f>K27/$E27</f>
+        <f t="shared" si="3"/>
         <v>19.840815268166384</v>
       </c>
     </row>
@@ -1305,27 +1284,27 @@
         <v>13142.908968099302</v>
       </c>
       <c r="F33">
-        <f>$E33*(1+$N33)^(F22-$E22)</f>
+        <f t="shared" ref="F33:K33" si="7">$E33*(1+$N33)^(F22-$E22)</f>
         <v>17247.359880422511</v>
       </c>
       <c r="G33">
-        <f>$E33*(1+$N33)^(G22-$E22)</f>
+        <f t="shared" si="7"/>
         <v>27129.461156185345</v>
       </c>
       <c r="H33">
-        <f>$E33*(1+$N33)^(H22-$E22)</f>
+        <f t="shared" si="7"/>
         <v>42673.642095241041</v>
       </c>
       <c r="I33">
-        <f>$E33*(1+$N33)^(I22-$E22)</f>
+        <f t="shared" si="7"/>
         <v>67124.065575388056</v>
       </c>
       <c r="J33">
-        <f>$E33*(1+$N33)^(J22-$E22)</f>
+        <f t="shared" si="7"/>
         <v>105583.68018631023</v>
       </c>
       <c r="K33">
-        <f>$E33*(1+$N33)^(K22-$E22)</f>
+        <f t="shared" si="7"/>
         <v>166079.23590630319</v>
       </c>
       <c r="N33">

--- a/SuppXLS/Demands/ScenDem_DEM_Ref.xlsx
+++ b/SuppXLS/Demands/ScenDem_DEM_Ref.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\Demands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBD5567-07E2-4BF1-A382-8CF645FB82E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45721152-58B4-44D9-9A23-0FD55395C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28965" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{160EB8D6-37B5-4ECA-BC09-5923A721DAB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{160EB8D6-37B5-4ECA-BC09-5923A721DAB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -93,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>* declare the demand drives and initial allocations</t>
   </si>
@@ -131,15 +128,6 @@
     <t>\~2050</t>
   </si>
   <si>
-    <t>MANHEATG_MVA_INDUCED</t>
-  </si>
-  <si>
-    <t>MANELCG_INDUCED</t>
-  </si>
-  <si>
-    <t>CEMENTHEAT_INDUCED</t>
-  </si>
-  <si>
     <t>\~2023</t>
   </si>
   <si>
@@ -207,6 +195,9 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>MVA</t>
   </si>
 </sst>
 </file>
@@ -454,483 +445,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="BAU growth"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="D19" t="str">
-            <v>Year</v>
-          </cell>
-          <cell r="E19">
-            <v>2022</v>
-          </cell>
-          <cell r="F19">
-            <v>2023</v>
-          </cell>
-          <cell r="G19">
-            <v>2024</v>
-          </cell>
-          <cell r="H19">
-            <v>2025</v>
-          </cell>
-          <cell r="I19">
-            <v>2026</v>
-          </cell>
-          <cell r="J19">
-            <v>2027</v>
-          </cell>
-          <cell r="K19">
-            <v>2028</v>
-          </cell>
-          <cell r="L19">
-            <v>2029</v>
-          </cell>
-          <cell r="M19">
-            <v>2030</v>
-          </cell>
-          <cell r="N19">
-            <v>2031</v>
-          </cell>
-          <cell r="O19">
-            <v>2032</v>
-          </cell>
-          <cell r="P19">
-            <v>2033</v>
-          </cell>
-          <cell r="Q19">
-            <v>2034</v>
-          </cell>
-          <cell r="R19">
-            <v>2035</v>
-          </cell>
-          <cell r="S19">
-            <v>2036</v>
-          </cell>
-          <cell r="T19">
-            <v>2037</v>
-          </cell>
-          <cell r="U19">
-            <v>2038</v>
-          </cell>
-          <cell r="V19">
-            <v>2039</v>
-          </cell>
-          <cell r="W19">
-            <v>2040</v>
-          </cell>
-          <cell r="X19">
-            <v>2041</v>
-          </cell>
-          <cell r="Y19">
-            <v>2042</v>
-          </cell>
-          <cell r="Z19">
-            <v>2043</v>
-          </cell>
-          <cell r="AA19">
-            <v>2044</v>
-          </cell>
-          <cell r="AB19">
-            <v>2045</v>
-          </cell>
-          <cell r="AC19">
-            <v>2046</v>
-          </cell>
-          <cell r="AD19">
-            <v>2047</v>
-          </cell>
-          <cell r="AE19">
-            <v>2048</v>
-          </cell>
-          <cell r="AF19">
-            <v>2049</v>
-          </cell>
-          <cell r="AG19">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-          <cell r="E20">
-            <v>13142.908968099302</v>
-          </cell>
-          <cell r="F20">
-            <v>14389.152267273885</v>
-          </cell>
-          <cell r="G20">
-            <v>15753.567454004515</v>
-          </cell>
-          <cell r="H20">
-            <v>17247.359880422511</v>
-          </cell>
-          <cell r="I20">
-            <v>18882.797418002716</v>
-          </cell>
-          <cell r="J20">
-            <v>20673.311208288844</v>
-          </cell>
-          <cell r="K20">
-            <v>22633.605967053103</v>
-          </cell>
-          <cell r="L20">
-            <v>24779.780747770386</v>
-          </cell>
-          <cell r="M20">
-            <v>27129.461156185345</v>
-          </cell>
-          <cell r="N20">
-            <v>29701.944101793288</v>
-          </cell>
-          <cell r="O20">
-            <v>32518.356275016387</v>
-          </cell>
-          <cell r="P20">
-            <v>35601.827651579661</v>
-          </cell>
-          <cell r="Q20">
-            <v>38977.681449003176</v>
-          </cell>
-          <cell r="R20">
-            <v>42673.642095241041</v>
-          </cell>
-          <cell r="S20">
-            <v>46720.062917423726</v>
-          </cell>
-          <cell r="T20">
-            <v>51150.175420612934</v>
-          </cell>
-          <cell r="U20">
-            <v>56000.362203787627</v>
-          </cell>
-          <cell r="V20">
-            <v>61310.455754402312</v>
-          </cell>
-          <cell r="W20">
-            <v>67124.065575388056</v>
-          </cell>
-          <cell r="X20">
-            <v>73488.936331148929</v>
-          </cell>
-          <cell r="Y20">
-            <v>80457.339953852163</v>
-          </cell>
-          <cell r="Z20">
-            <v>88086.504930211318</v>
-          </cell>
-          <cell r="AA20">
-            <v>96439.086294309483</v>
-          </cell>
-          <cell r="AB20">
-            <v>105583.68018631023</v>
-          </cell>
-          <cell r="AC20">
-            <v>115595.3872029046</v>
-          </cell>
-          <cell r="AD20">
-            <v>126556.4291660481</v>
-          </cell>
-          <cell r="AE20">
-            <v>138556.82437524199</v>
-          </cell>
-          <cell r="AF20">
-            <v>151695.12688891505</v>
-          </cell>
-          <cell r="AG20">
-            <v>166079.23590630319</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>0</v>
-          </cell>
-          <cell r="E21">
-            <v>2605.1202084096003</v>
-          </cell>
-          <cell r="F21">
-            <v>2852.1441824137569</v>
-          </cell>
-          <cell r="G21">
-            <v>3122.591583688496</v>
-          </cell>
-          <cell r="H21">
-            <v>3418.6834798338832</v>
-          </cell>
-          <cell r="I21">
-            <v>3742.8515456009836</v>
-          </cell>
-          <cell r="J21">
-            <v>4097.758033185446</v>
-          </cell>
-          <cell r="K21">
-            <v>4486.3176361539754</v>
-          </cell>
-          <cell r="L21">
-            <v>4911.7214265626535</v>
-          </cell>
-          <cell r="M21">
-            <v>5377.4630618523306</v>
-          </cell>
-          <cell r="N21">
-            <v>5887.3674767469784</v>
-          </cell>
-          <cell r="O21">
-            <v>6445.6222957891723</v>
-          </cell>
-          <cell r="P21">
-            <v>7056.8122244902643</v>
-          </cell>
-          <cell r="Q21">
-            <v>7725.9567015349176</v>
-          </cell>
-          <cell r="R21">
-            <v>8458.5511212612601</v>
-          </cell>
-          <cell r="S21">
-            <v>9260.611964959091</v>
-          </cell>
-          <cell r="T21">
-            <v>10138.726211629953</v>
-          </cell>
-          <cell r="U21">
-            <v>11100.10543399832</v>
-          </cell>
-          <cell r="V21">
-            <v>12152.645024041023</v>
-          </cell>
-          <cell r="W21">
-            <v>13304.989034428607</v>
-          </cell>
-          <cell r="X21">
-            <v>14566.601168393336</v>
-          </cell>
-          <cell r="Y21">
-            <v>15947.84250103297</v>
-          </cell>
-          <cell r="Z21">
-            <v>17460.056570341723</v>
-          </cell>
-          <cell r="AA21">
-            <v>19115.662536784355</v>
-          </cell>
-          <cell r="AB21">
-            <v>20928.257176492592</v>
-          </cell>
-          <cell r="AC21">
-            <v>22912.726545710029</v>
-          </cell>
-          <cell r="AD21">
-            <v>25085.368233537247</v>
-          </cell>
-          <cell r="AE21">
-            <v>27464.025206986094</v>
-          </cell>
-          <cell r="AF21">
-            <v>30068.232347554771</v>
-          </cell>
-          <cell r="AG21">
-            <v>32919.376882765209</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-          <cell r="E22">
-            <v>2861.5612011470998</v>
-          </cell>
-          <cell r="F22">
-            <v>3132.9015475470856</v>
-          </cell>
-          <cell r="G22">
-            <v>3429.9710600941912</v>
-          </cell>
-          <cell r="H22">
-            <v>3755.2094422803921</v>
-          </cell>
-          <cell r="I22">
-            <v>4111.2877363474217</v>
-          </cell>
-          <cell r="J22">
-            <v>4501.1302594020872</v>
-          </cell>
-          <cell r="K22">
-            <v>4927.9386195685693</v>
-          </cell>
-          <cell r="L22">
-            <v>5395.2180094119831</v>
-          </cell>
-          <cell r="M22">
-            <v>5906.8059925697244</v>
-          </cell>
-          <cell r="N22">
-            <v>6466.904020002753</v>
-          </cell>
-          <cell r="O22">
-            <v>7080.1119346961732</v>
-          </cell>
-          <cell r="P22">
-            <v>7751.4657481812819</v>
-          </cell>
-          <cell r="Q22">
-            <v>8486.4789991213638</v>
-          </cell>
-          <cell r="R22">
-            <v>9291.1880336213835</v>
-          </cell>
-          <cell r="S22">
-            <v>10172.201579129205</v>
-          </cell>
-          <cell r="T22">
-            <v>11136.755019057369</v>
-          </cell>
-          <cell r="U22">
-            <v>12192.769813859401</v>
-          </cell>
-          <cell r="V22">
-            <v>13348.918556560302</v>
-          </cell>
-          <cell r="W22">
-            <v>14614.696197014158</v>
-          </cell>
-          <cell r="X22">
-            <v>16000.498019822882</v>
-          </cell>
-          <cell r="Y22">
-            <v>17517.705016315093</v>
-          </cell>
-          <cell r="Z22">
-            <v>19178.777351708195</v>
-          </cell>
-          <cell r="AA22">
-            <v>20997.35669505917</v>
-          </cell>
-          <cell r="AB22">
-            <v>22988.378252395603</v>
-          </cell>
-          <cell r="AC22">
-            <v>25168.193423106768</v>
-          </cell>
-          <cell r="AD22">
-            <v>27554.704086918558</v>
-          </cell>
-          <cell r="AE22">
-            <v>30167.509624293209</v>
-          </cell>
-          <cell r="AF22">
-            <v>33028.067877668778</v>
-          </cell>
-          <cell r="AG22">
-            <v>36159.871375443494</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-          <cell r="E23">
-            <v>7676.2275585426005</v>
-          </cell>
-          <cell r="F23">
-            <v>8404.1065373130405</v>
-          </cell>
-          <cell r="G23">
-            <v>9201.0048102218243</v>
-          </cell>
-          <cell r="H23">
-            <v>10073.466958308234</v>
-          </cell>
-          <cell r="I23">
-            <v>11028.65813605431</v>
-          </cell>
-          <cell r="J23">
-            <v>12074.422915701309</v>
-          </cell>
-          <cell r="K23">
-            <v>13219.349711330555</v>
-          </cell>
-          <cell r="L23">
-            <v>14472.84131179575</v>
-          </cell>
-          <cell r="M23">
-            <v>15845.192101763289</v>
-          </cell>
-          <cell r="N23">
-            <v>17347.67260504355</v>
-          </cell>
-          <cell r="O23">
-            <v>18992.622044531039</v>
-          </cell>
-          <cell r="P23">
-            <v>20793.549678908112</v>
-          </cell>
-          <cell r="Q23">
-            <v>22765.245748346893</v>
-          </cell>
-          <cell r="R23">
-            <v>24923.902940358392</v>
-          </cell>
-          <cell r="S23">
-            <v>27287.249373335428</v>
-          </cell>
-          <cell r="T23">
-            <v>29874.694189925605</v>
-          </cell>
-          <cell r="U23">
-            <v>32707.4869559299</v>
-          </cell>
-          <cell r="V23">
-            <v>35808.892173800974</v>
-          </cell>
-          <cell r="W23">
-            <v>39204.380343945282</v>
-          </cell>
-          <cell r="X23">
-            <v>42921.837142932702</v>
-          </cell>
-          <cell r="Y23">
-            <v>46991.792436504096</v>
-          </cell>
-          <cell r="Z23">
-            <v>51447.671008161386</v>
-          </cell>
-          <cell r="AA23">
-            <v>56326.067062465954</v>
-          </cell>
-          <cell r="AB23">
-            <v>61667.044757422016</v>
-          </cell>
-          <cell r="AC23">
-            <v>67514.467234087802</v>
-          </cell>
-          <cell r="AD23">
-            <v>73916.356845592265</v>
-          </cell>
-          <cell r="AE23">
-            <v>80925.289543962674</v>
-          </cell>
-          <cell r="AF23">
-            <v>88598.826663691478</v>
-          </cell>
-          <cell r="AG23">
-            <v>96999.987648094466</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,7 +737,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1231,7 +745,7 @@
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" x14ac:dyDescent="0.2">
@@ -1266,85 +780,85 @@
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="W6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AB6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE6" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="AF6" s="5" t="s">
         <v>11</v>
@@ -1353,10 +867,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -1448,194 +962,66 @@
       <c r="AG7" s="6"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1.0948224858134137</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1.1986362754426625</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1.3122939466662673</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1.4367289208070582</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1.5729631285180068</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1.7221154024569283</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1.8854106657754617</v>
-      </c>
-      <c r="L8" s="6">
-        <v>2.0641899918834139</v>
-      </c>
-      <c r="M8" s="6">
-        <v>2.2599216181049693</v>
-      </c>
-      <c r="N8" s="6">
-        <v>2.4742130036771548</v>
-      </c>
-      <c r="O8" s="6">
-        <v>2.7088240311176954</v>
-      </c>
-      <c r="P8" s="6">
-        <v>2.9656814593793874</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>3.2468947474884939</v>
-      </c>
-      <c r="R8" s="7">
-        <v>3.5547733786198683</v>
-      </c>
-      <c r="S8" s="7">
-        <v>3.891845826883952</v>
-      </c>
-      <c r="T8" s="6">
-        <v>4.2608803225916487</v>
-      </c>
-      <c r="U8" s="6">
-        <v>4.664907586533249</v>
-      </c>
-      <c r="V8" s="6">
-        <v>5.1072457199781844</v>
-      </c>
-      <c r="W8" s="6">
-        <v>5.5915274548064327</v>
-      </c>
-      <c r="X8" s="6">
-        <v>6.1217299875651294</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>6.7022076424645727</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>7.3377276315607247</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>8.0335092058070838</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>8.7952665185066525</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>9.6292555531829418</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>10.542325501268367</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>11.541975011552777</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>12.636413773344518</v>
-      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1.0948224858134135</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1.1986362754426625</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1.3122939466662673</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1.4367289208070582</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1.5729631285180066</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1.7221154024569283</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1.8854106657754615</v>
-      </c>
-      <c r="L9" s="6">
-        <v>2.0641899918834139</v>
-      </c>
-      <c r="M9" s="6">
-        <v>2.2599216181049693</v>
-      </c>
-      <c r="N9" s="6">
-        <v>2.4742130036771548</v>
-      </c>
-      <c r="O9" s="6">
-        <v>2.7088240311176954</v>
-      </c>
-      <c r="P9" s="6">
-        <v>2.9656814593793879</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>3.2468947474884935</v>
-      </c>
-      <c r="R9" s="6">
-        <v>3.5547733786198688</v>
-      </c>
-      <c r="S9" s="6">
-        <v>3.891845826883952</v>
-      </c>
-      <c r="T9" s="6">
-        <v>4.2608803225916487</v>
-      </c>
-      <c r="U9" s="6">
-        <v>4.664907586533249</v>
-      </c>
-      <c r="V9" s="6">
-        <v>5.1072457199781844</v>
-      </c>
-      <c r="W9" s="6">
-        <v>5.5915274548064327</v>
-      </c>
-      <c r="X9" s="6">
-        <v>6.1217299875651294</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>6.7022076424645727</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>7.3377276315607238</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>8.0335092058070838</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>8.7952665185066525</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>9.6292555531829418</v>
-      </c>
-      <c r="AD9" s="6">
-        <v>10.542325501268367</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>11.541975011552777</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>12.636413773344517</v>
-      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/SuppXLS/Demands/ScenDem_DEM_Ref.xlsx
+++ b/SuppXLS/Demands/ScenDem_DEM_Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{45721152-58B4-44D9-9A23-0FD55395C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13F75D24-CCE4-429E-A6BF-4F14322E80B0}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{45721152-58B4-44D9-9A23-0FD55395C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B072A456-6833-406E-A0E5-6696C08CAF82}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{160EB8D6-37B5-4ECA-BC09-5923A721DAB9}"/>
   </bookViews>
@@ -445,6 +445,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D947983-E6F1-4569-8577-20F46CF180DE}">
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1023,12 +1027,6 @@
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
     </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P35">
-        <f>1.13*1.31</f>
-        <v>1.4802999999999999</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SuppXLS/Demands/ScenDem_DEM_Ref.xlsx
+++ b/SuppXLS/Demands/ScenDem_DEM_Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{45721152-58B4-44D9-9A23-0FD55395C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B072A456-6833-406E-A0E5-6696C08CAF82}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{45721152-58B4-44D9-9A23-0FD55395C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9516004C-4174-413C-851D-FD501E2C7A1C}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{160EB8D6-37B5-4ECA-BC09-5923A721DAB9}"/>
   </bookViews>
@@ -194,10 +194,10 @@
     <t>\~2049</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>MVA</t>
+  </si>
+  <si>
+    <t>ETH</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,10 +871,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
